--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -1112,7 +1112,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="A14:XFD14"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1475,7 +1475,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>113</v>
